--- a/results/2016年第4季.xlsx
+++ b/results/2016年第4季.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,6 +737,7576 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>198.5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>809,494</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>676,909</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>188,134</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>214,643</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>379,589</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-187,332</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>378,475</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>985,131</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1,270,355</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>4,351,735</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6,596,484</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2,225,870</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1,420,750</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1,356,424</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2,516,579</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-1,061,367</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2,168,067</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>6,280,779</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>6,284,081</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>34,980,042</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>29.15</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>9,775,294</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>728,777</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-900,972</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-906,693</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2,962,182</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-15,605,004</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>18,755,546</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1,590,152</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>55,787,321</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>-3.32</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>-1.17</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>41,397,828</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>83,014,408</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>-1.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>245</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>11,081,831</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2,688,200</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1,277,712</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1,475,928</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4,569,676</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-374,233</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>577,336</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>4,319,637</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>8,977,414</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2,426,451</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>31,975,639</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>460</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>374,374</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>221,376</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>150,387</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>148,336</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>138,845</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-938,940</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>801,747</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>132,877</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>720,062</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>27,638</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2,621,227</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16,556,992</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,657,751</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>912,223</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>799,162</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2,199,546</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-1,237,842</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>676,073</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1,663,890</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>22,976,539</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>5,269,390</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>44,234,126</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>36.05</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1,316</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-36,439</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-37,396</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-46,148</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-343,318</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2,789</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-71,290</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>31,407</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-1.46</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>-1.44</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>174,737</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2,555,655</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>-0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3,206,140</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>961,975</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>584,035</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>549,855</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1,152,653</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-835,024</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>243,908</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>462,153</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>8,092,755</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>13,348,978</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>26,410,639</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1,727,943</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>322,179</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>136,418</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>197,618</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>124,777</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-24,705</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-151,679</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>111,091</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2,391,827</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>945,380</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>4,684,230</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4,871,559</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,191,152</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>885,032</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>849,934</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2,120,372</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>553,105</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-1,151,871</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1,564,072</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>9,873,493</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>14,314,627</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>34,351,186</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>45.75</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4,845,062</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>860,461</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>519,996</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>422,217</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>620,780</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-415,622</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-200,898</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>210,041</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>4,578,441</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>4,306,954</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>11,187,178</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>6,291,645</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>415,815</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>17,378</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-444,825</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2,470,742</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-758,665</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-139,984</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1,761,000</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>25,392,599</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>-0.87</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>-0.49</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>15,669,918</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>76,455,265</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>-0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>255,479</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>62,587</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-5,472</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>13,858</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-6,758</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-3,465</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-28,820</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-6,887</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>469,473</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>473,220</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1,339,724</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>214</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>15,265,350</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5,657,328</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>237,255</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>245,398</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1,196,843</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-817,949</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>321,620</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>314,887</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>21,238,225</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>10,196,992</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>26,508,221</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>581,422</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>77,742</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-23,120</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>48,016</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>142,911</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-48,229</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-107,582</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-73,496</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2,422,779</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2,020,187</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>3,604,942</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1,841,922</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>495,222</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>295,978</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>283,997</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>894,898</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-279,094</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>149,895</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>679,099</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>5,081,108</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>8,869,796</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>15,566,876</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2,312,067</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>777,140</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>116,173</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>90,652</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>233,349</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-77,256</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-106,410</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>214,025</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>6,618,064</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>1,861,325</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>13,454,473</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>794,598</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>194,193</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27,457</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>26,974</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>58,890</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-83,614</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>-181</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>19,406</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>543,482</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>213,769</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>1,279,907</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>806,758</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>-192,234</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>-296,643</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-273,411</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>97,359</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-182,958</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>552,445</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>-77,554</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>3,329,324</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>-5.22</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>-3.26</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>6,128,613</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>8,434,276</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>-1.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>405,222</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>117,651</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>38,471</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>56,811</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>166,026</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-53,054</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-7,148</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>68,833</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>791,444</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>646,776</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>2,080,335</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>109,991</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>28,789</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>6,417</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>10,702</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>22,435</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-70,067</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>3,045</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>-2,888</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>163,082</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>305,895</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>1,128,848</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>15</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>56,202</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>40,931</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-6,916</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-6,858</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>24,784</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-3,532</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>-2,242</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>22,384</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>132,226</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>-1.79</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>-1.26</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>134,782</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>510,874</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>-0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>46.85</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>371,532</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>89,536</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>49,998</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>53,919</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>241,789</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-23,256</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>-170,778</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>218,897</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>362,351</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1,279,578</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>3,189,082</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>89</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1,324,574</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>657,991</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>207,080</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>155,306</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>494,929</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-186,110</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>-324,591</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>437,953</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>3,305,212</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2,971,021</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>7,264,994</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>37.95</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4,752,082</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>504,568</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>145,535</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>187,683</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>357,060</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>219,484</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-462,091</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>325,492</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>3,047,196</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>3,822,999</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>7,737,095</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>7,425,032</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1,612,050</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>904,105</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>764,975</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1,002,343</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>-233,583</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>-667,820</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>820,859</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>15,798,621</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>5,507,593</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>24,761,523</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>45.65</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-82,275</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-58,882</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-55,614</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>-204</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>-55,929</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>45,893</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>-6.52</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>-6.24</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>19,686</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>918,273</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>-0.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2,956,340</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>-379,595</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>-531,728</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-468,287</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-3,022,596</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-84,791</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>3,096,033</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>-3,112,132</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>15,441,284</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>-3.76</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>-1.68</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>10,709,596</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>27,670,942</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>-0.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>87</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1,325,501</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>323,475</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>133,379</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>118,196</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>322,608</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-5,937</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>77,573</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>315,380</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1,576,471</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>1,023,115</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>4,229,050</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>49.35</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>825,138</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>191,084</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>61,278</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>75,997</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>27,957</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-515,142</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>189,967</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>19,729</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1,644,370</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>188,260</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>3,147,260</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>11,038,576</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1,352,429</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>67,911</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-90,341</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1,842,392</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-1,171,761</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>-533,830</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1,528,672</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>23,665,432</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>-0.54</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>11,367,416</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>40,282,226</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>-0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>153,747</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13,261</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>4,480</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-7,782</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>12,837</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>12,631</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>8,890</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>232,922</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>-0.30</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>-0.28</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>369,850</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2,792,369</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>82,171,323</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10,991,931</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>7,009,428</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4,476,457</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>9,081,939</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-2,935,859</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-7,053,606</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>3,304,622</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>346,542,100</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>430,849,587</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>676,121,793</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1,843,646</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>46,987</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>-20,095</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-77,091</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>131,743</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-491,944</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>129,877</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>-463,456</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>12,182,737</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>-2.23</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>-0.40</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>12,149,196</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>15,598,066</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>-0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>715,234</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>17,100</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2,617</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-28,743</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>12,136</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>-10,372</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>115,314</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>1,399</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1,964,557</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>-0.95</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>-1.01</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>934,635</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>5,129,803</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>48</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>469,163</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>258,054</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>68,441</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>57,669</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>133,433</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-9,256</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>67,692</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>120,486</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>836,506</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>773,471</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>1,663,369</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>433,710</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>94,922</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>34,334</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7,638</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-164,010</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>-20,799</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>282,048</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>-164,010</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>4,420,702</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>23,322</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>6,703,097</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>19.55</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>207,987</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>33,168</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1,548</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>30,791</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-38,635</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>46,863</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>26,226</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>-43,795</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>206,038</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>251,106</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1,061,198</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>464,354</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>113,289</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>47,000</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>43,187</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>100,002</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-20,668</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>86,219</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>92,067</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>410,130</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>257,644</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1,816,373</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1,177,339</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>965,810</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>1,968,052</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>241,288</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>-36,905</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>-118,527</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-164,934</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-91,762</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>103,036</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>4,208</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>-75,635</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>862,739</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>-10.91</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>-6.92</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>576,817</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>2,311,262</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>-1.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>560,139</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>130,765</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>62,150</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>16,906</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>4,756</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-8,047</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>89,783</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>4,812</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1,436,626</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>875,631</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>2,754,344</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>4,062,897</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>782,930</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>-499,519</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-674,574</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>1,399,081</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-35,611</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>-795,157</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>1,025,235</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>26,778,547</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>-9.02</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>-1.50</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>11,781,890</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>33,867,933</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>-0.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>801,266</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>220,549</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>-62,971</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>167,628</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>346,126</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-36,215</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>-215,908</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>333,334</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>5,504,314</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>2,991,036</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>11,545,689</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>94,416,159</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>29,351,931</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>3,471,053</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3,848,263</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>20,464,795</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>916,127</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-4,349,861</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>16,759,904</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>225,885,199</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>148,760,628</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>378,585,465</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2,471,732</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>23,830</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>-272,082</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-1,329,650</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>132,330</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>856,787</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>-417,648</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>20,018</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>9,455,030</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>-7.39</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>-4.61</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>13,691,073</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>26,791,300</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>-0.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2,354,610</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>-220,998</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>-833,505</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-1,149,346</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>571,524</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>237,986</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-517,753</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>532,113</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>8,085,184</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>-5.29</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>-3.67</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>14,797,071</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>29,258,561</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>-0.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>89,382,367</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>19,801,886</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>13,995,348</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>10,869,457</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>15,934,921</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-8,979,093</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-3,459,828</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>6,684,428</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>145,473,185</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>201,360,858</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>371,479,548</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>45.25</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>12,097,960</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3,744,371</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2,569,552</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>20,077,501</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>4,777,418</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>-507,161</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-8,514,151</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>-10,212,542</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>51,331,995</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>27.17</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>67,917,337</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>136,977,142</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>648,018</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>134,047</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>49,206</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>108,361</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>-2,861</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>-205,979</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-36,159</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>8,354,144</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2,718,673</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>10,087,323</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1,403,239,008</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>118,495,731</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>76,685,654</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>70,472,387</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>-844,166</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>-22,009,497</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>7,561,407</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>-17,546,615</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1,458,254,342</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>309,202,470</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>2,592,042,940</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>5,161,095</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>319,906</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>101,260</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>171,265</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>1,302,951</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>-225,500</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>259,883</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>1,294,487</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>13,119,102</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>1,146,751</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>24,010,034</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>12,707,554</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6,345,870</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1,564,026</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>820,191</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>7,484,141</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>-1,082,466</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>775,990</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>7,033,529</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>69,752,808</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>43,626,582</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>106,195,610</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1,727,853</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>865,869</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>469,170</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2,850,208</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>-344,706</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>12,782</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1,239,665</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>-313,114</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>24,968,236</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>1,706,562</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>57,147,732</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>181,061</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>36,659</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>18,392</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>29,922</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>-12,348</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-1,493</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>-13,841</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>184,991</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>391,149</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2,458,839</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>32.85</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>10,386,410</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1,886,297</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>427,135</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>445,407</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>713,972</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-1,014,019</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>500,542</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>-221,270</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>30,562,827</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>17,263,366</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>51,802,056</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>59.8</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>27,727,721</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7,841,466</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>3,360,015</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2,261,818</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>5,452,689</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-4,300,481</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>499,589</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>1,331,795</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>79,895,338</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>103,156,284</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>168,164,726</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>58,333,864</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>19,656,373</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>9,955,116</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8,051,250</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>31,668,647</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-11,658,400</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>93,371</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>20,463,840</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>75,932,835</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>291,169,760</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>447,132,505</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>19.55</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>5,135,527</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>722,552</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>129,781</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>121,877</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>566,464</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>-268,603</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>-624,557</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>556,925</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>5,742,768</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>2,358,829</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>14,261,424</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>73,477</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>38,169</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>11,562</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>-19,745</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-38,483</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>-263,062</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>86,141</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>-38,483</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>10,304,221</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>-0.24</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>18,681,714</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>152,286,512</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>28,562,538</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>25,761,507</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>22,800,341</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>21,394,114</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>-11,795,946</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-6,228,996</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>20,166,891</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>143,264,409</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>115,952,193</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>452,363,649</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1,427,647</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>409,672</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>28,558</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>29,992</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>48,677</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-69,698</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>-49,522</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>-10,949</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>4,458,792</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>4,162,002</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>9,957,117</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1,479,356</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>794,694</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>-187,209</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>-217,715</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>217,637</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>-191,314</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>-152,659</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>170,698</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>6,883,142</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>-2.53</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>-0.99</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>1,954,254</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>15,244,133</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>-0.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>6,579,283</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1,676,759</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>757,307</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>746,551</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1,553,469</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-1,068,875</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>-264,743</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>411,737</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>16,313,335</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>18,679,840</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>36,465,486</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>199</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>7,604,445</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1,138,725</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>171,264</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1,293,441</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>351,365</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>33,077</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>-38,125</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>316,933</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>8,185,405</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>1,703,040</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>29,739,748</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1,049,322</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>357,421</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>195,723</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>300,519</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>456,211</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-445,441</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-130,463</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>87,367</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>4,189,720</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>5,891,353</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>9,535,280</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>34,195,363</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>730,513</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>-772,352</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>-1,107,379</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>1,778,163</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-753,837</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>-1,605,972</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>1,641,701</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>136,115,263</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>-2.09</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>-0.41</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>99,470,430</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>189,753,764</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>-0.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>867,608</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>-148,290</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>-218,327</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-315,207</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>144,841</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-136,219</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-176,868</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>13,245</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>24,191,294</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>-3.75</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>-0.64</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>30,411,944</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>32,580,057</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>-0.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>56,402,672</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>11,988,286</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2,320,018</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3,473,782</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>4,930,730</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-5,918,566</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>-5,864,967</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>107,152</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>261,267,506</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>148,316,398</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>513,460,158</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>262,000</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>20,853</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1,692</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4,527</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>-29,437</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-3,523</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>-1,006</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>-34,168</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1,633,424</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>1,714,219</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>4,681,681</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>620,916</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>206,833</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>105,485</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>81,388</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>105,757</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>35,224</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-61,962</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>100,432</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>423,722</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>702,730</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>2,005,952</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>38,305,939</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>8,759,058</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2,276,135</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>448,844</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>15,546,371</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-18,321,050</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>4,220,798</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>-6,358,607</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>167,913,558</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>224,983,404</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>386,655,182</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2,244,717</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>463,638</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>248,478</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>227,393</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>652,296</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-175,632</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-245,530</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>495,998</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>4,675,802</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>4,370,862</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>10,076,478</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>277,151</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>-2,487</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>-61,211</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>-95,726</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>-19,369</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>5,032</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>-16,303</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>340,417</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>-2.94</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>-2.67</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>939,984</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>3,557,918</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>-0.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>5,234,560</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1,488,773</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>904,272</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>654,572</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2,372,837</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-911,780</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-1,278,146</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>1,408,330</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>19,984,059</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>28,684,252</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>43,687,098</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>32.55</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>90,643,831</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3,504,976</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1,348,496</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1,418,446</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>-4,095,270</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>283,702</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>486,416</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>-4,228,297</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>83,948,674</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>6,835,286</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>127,831,170</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>5,100,549</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>811,741</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>113,515</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>77,693</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>-113,804</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-116,189</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>6,043</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>-196,455</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>5,145,757</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>3,607,852</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>9,938,815</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>45.25</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>10,350,553</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>962,320</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>395,093</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>262,825</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>1,086,926</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>225,068</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>-1,162,624</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>1,017,693</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>14,080,169</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>2,322,312</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>24,918,417</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>7,123,711</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>335,194</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>105,484</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>45,656</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>-380,609</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-21,109</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>486,412</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>-384,092</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>9,005,022</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>314,060</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>11,237,752</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>920,768</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>405,997</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>88,535</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>92,976</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>299,374</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>-25,856</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>-357,087</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>303,005</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>1,834,595</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>5,621,680</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>11,239,821</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>880,617</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>272,729</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>-57,931</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>-61,813</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>142,515</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>-2,003</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>-191,278</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>129,733</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>5,722,320</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>-1.35</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>-0.40</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>7,282,345</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>10,275,631</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>-0.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>171</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1,844,786</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>653,476</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>377,805</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>312,158</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>391,510</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-178,064</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>-547,679</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>338,034</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>3,676,525</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>3,280,192</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>7,521,712</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>310,717</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>261,468</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-20,867</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>-45,355</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>33,977</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>-741,299</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>1,029,871</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>-597,443</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>5,581,713</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>-1.75</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>-0.36</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>6,046,427</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>8,139,882</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>-0.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>14,447,130</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3,373,444</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1,627,784</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>830,680</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>871,213</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-370,967</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>-482,418</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>475,076</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>15,434,991</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>13,999,643</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>30,893,418</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>190</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>12,854,525</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2,326,497</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>598,714</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>665,402</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>-664,582</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>47,992</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>165,131</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>-1,101,157</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>25,226,160</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>7,276,325</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>45,243,518</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>13,427,629</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3,404,233</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1,100,250</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1,036,423</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>933,518</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>-1,470,324</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>-319,451</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>7,494</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>36,649,413</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>18,463,450</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>92,373,956</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>875,278</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>112,094</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>-17,300</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>-6,598</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>-175,850</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>6,126</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>243,210</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>-182,868</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2,454,768</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>-0.24</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>980,179</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>5,181,530</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>5,866,139</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>982,603</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>241,954</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>219,324</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>726,912</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-50,985</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>-819,961</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>572,032</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>14,438,310</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>6,053,229</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>36,288,452</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>219,338,916</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>9,036,361</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2,408,774</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2,786,175</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>18,853,809</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-982,750</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>6,024,379</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>17,858,987</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>234,732,296</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>20,952,677</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>347,016,111</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>263</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>126,398,576</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>18,399,583</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>5,068,214</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5,063,873</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>14,065,579</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>-554,917</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>1,007,367</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>13,893,124</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>180,002,712</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>13,743,767</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>364,219,926</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>34,283,321</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4,191,122</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1,148,883</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1,674,204</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>4,527,898</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>-1,143,174</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>-1,792,573</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>3,912,307</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>62,366,879</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>18,860,162</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>95,312,210</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>256</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>10,804,954</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4,349,695</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1,736,762</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1,429,738</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2,901,655</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>-1,742,997</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>59,171</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>2,372,424</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>13,152,056</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>10,089,836</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>38,538,953</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>41.55</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>12,354,901</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1,856,691</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>146,096</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>502,411</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2,120,372</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>-94,098</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>-59,755</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>2,027,730</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>13,255,107</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>3,905,043</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>36,224,050</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>216,416</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>81,442</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>30,382</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>55,446</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>25,819</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>110,487</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>25,850</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>368,709</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>6,465</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>1,087,251</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>26.55</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2,330,050</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>194,219</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>59,534</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>64,821</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>562,004</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>9,587</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>-674,000</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>562,004</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>3,322,052</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>359,374</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>5,366,447</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>250,859</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>213,136</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>-53,074</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>-13,280</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>-29,126</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-8,358</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>-29,505</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>285,906</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>-0.84</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>-0.71</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>45,930</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>1,856,110</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>-0.12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
